--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130874764</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130864688</v>
       </c>
       <c r="B3" t="n">
-        <v>80304</v>
+        <v>80308</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130864687</v>
+        <v>130864689</v>
       </c>
       <c r="B4" t="n">
-        <v>83219</v>
+        <v>78255</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445985</v>
+        <v>446026</v>
       </c>
       <c r="R4" t="n">
-        <v>7030968</v>
+        <v>7031030</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130864689</v>
+        <v>130864687</v>
       </c>
       <c r="B5" t="n">
-        <v>78251</v>
+        <v>83223</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,21 +1027,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446026</v>
+        <v>445985</v>
       </c>
       <c r="R5" t="n">
-        <v>7031030</v>
+        <v>7030968</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1126,7 +1126,7 @@
         <v>130864691</v>
       </c>
       <c r="B6" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>130874549</v>
       </c>
       <c r="B7" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>130874548</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>130864686</v>
       </c>
       <c r="B9" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>130864692</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>130874765</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>130864516</v>
       </c>
       <c r="B12" t="n">
-        <v>91767</v>
+        <v>91771</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>130864513</v>
       </c>
       <c r="B13" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>130864511</v>
       </c>
       <c r="B14" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>130864514</v>
       </c>
       <c r="B15" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>130864529</v>
       </c>
       <c r="B16" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         <v>130864519</v>
       </c>
       <c r="B17" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>130864522</v>
       </c>
       <c r="B18" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         <v>130864525</v>
       </c>
       <c r="B19" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>130864526</v>
       </c>
       <c r="B20" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>130864509</v>
       </c>
       <c r="B21" t="n">
-        <v>80310</v>
+        <v>80314</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2933,48 +2933,50 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864521</v>
+        <v>130864515</v>
       </c>
       <c r="B22" t="n">
-        <v>91767</v>
+        <v>83223</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446069</v>
+        <v>445932</v>
       </c>
       <c r="R22" t="n">
-        <v>7030939</v>
+        <v>7031103</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3003,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3013,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3027,6 +3029,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3045,50 +3048,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864515</v>
+        <v>130864521</v>
       </c>
       <c r="B23" t="n">
-        <v>83219</v>
+        <v>91771</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445932</v>
+        <v>446069</v>
       </c>
       <c r="R23" t="n">
-        <v>7031103</v>
+        <v>7030939</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3127,12 +3128,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3141,7 +3142,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>130864510</v>
       </c>
       <c r="B24" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>130864528</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>130864524</v>
       </c>
       <c r="B26" t="n">
-        <v>91767</v>
+        <v>91771</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130864530</v>
+        <v>130864518</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>83223</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,21 +3510,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>445967</v>
+        <v>446031</v>
       </c>
       <c r="R27" t="n">
-        <v>7031099</v>
+        <v>7030902</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 150 år)i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130864518</v>
+        <v>130864530</v>
       </c>
       <c r="B28" t="n">
-        <v>83219</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3622,21 +3622,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446031</v>
+        <v>445967</v>
       </c>
       <c r="R28" t="n">
-        <v>7030902</v>
+        <v>7031099</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran (ca 150 år)i gammal granskog</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3726,7 +3726,7 @@
         <v>130864508</v>
       </c>
       <c r="B29" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>130864512</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130864513</v>
+        <v>130864511</v>
       </c>
       <c r="B13" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1923,21 +1923,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445962</v>
+        <v>445985</v>
       </c>
       <c r="R13" t="n">
-        <v>7031114</v>
+        <v>7031157</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2027,7 +2027,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130864511</v>
+        <v>130864514</v>
       </c>
       <c r="B14" t="n">
         <v>83223</v>
@@ -2064,13 +2064,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445985</v>
+        <v>445944</v>
       </c>
       <c r="R14" t="n">
-        <v>7031157</v>
+        <v>7031101</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130864514</v>
+        <v>130864513</v>
       </c>
       <c r="B15" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445944</v>
+        <v>445962</v>
       </c>
       <c r="R15" t="n">
-        <v>7031101</v>
+        <v>7031114</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2933,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864515</v>
+        <v>130864510</v>
       </c>
       <c r="B22" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,13 +2970,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445932</v>
+        <v>445990</v>
       </c>
       <c r="R22" t="n">
-        <v>7031103</v>
+        <v>7031220</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3048,48 +3048,50 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864521</v>
+        <v>130864515</v>
       </c>
       <c r="B23" t="n">
-        <v>91771</v>
+        <v>83223</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446069</v>
+        <v>445932</v>
       </c>
       <c r="R23" t="n">
-        <v>7030939</v>
+        <v>7031103</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3118,7 +3120,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3128,12 +3130,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3142,6 +3144,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3160,50 +3163,48 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130864510</v>
+        <v>130864521</v>
       </c>
       <c r="B24" t="n">
-        <v>78255</v>
+        <v>91771</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228579</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445990</v>
+        <v>446069</v>
       </c>
       <c r="R24" t="n">
-        <v>7031220</v>
+        <v>7030939</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3232,7 +3233,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3242,12 +3243,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3256,7 +3257,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130864689</v>
+        <v>130864687</v>
       </c>
       <c r="B4" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>446026</v>
+        <v>445985</v>
       </c>
       <c r="R4" t="n">
-        <v>7031030</v>
+        <v>7030968</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130864687</v>
+        <v>130864689</v>
       </c>
       <c r="B5" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,21 +1027,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445985</v>
+        <v>446026</v>
       </c>
       <c r="R5" t="n">
-        <v>7030968</v>
+        <v>7031030</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130864519</v>
+        <v>130864522</v>
       </c>
       <c r="B17" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446074</v>
+        <v>446025</v>
       </c>
       <c r="R17" t="n">
-        <v>7030848</v>
+        <v>7031011</v>
       </c>
       <c r="S17" t="n">
         <v>6</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130864522</v>
+        <v>130864519</v>
       </c>
       <c r="B18" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,21 +2492,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446025</v>
+        <v>446074</v>
       </c>
       <c r="R18" t="n">
-        <v>7031011</v>
+        <v>7030848</v>
       </c>
       <c r="S18" t="n">
         <v>6</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2933,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864510</v>
+        <v>130864515</v>
       </c>
       <c r="B22" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,13 +2970,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445990</v>
+        <v>445932</v>
       </c>
       <c r="R22" t="n">
-        <v>7031220</v>
+        <v>7031103</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3048,50 +3048,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864515</v>
+        <v>130864521</v>
       </c>
       <c r="B23" t="n">
-        <v>83223</v>
+        <v>91771</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445932</v>
+        <v>446069</v>
       </c>
       <c r="R23" t="n">
-        <v>7031103</v>
+        <v>7030939</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3120,7 +3118,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3130,12 +3128,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3144,7 +3142,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3163,48 +3160,50 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130864521</v>
+        <v>130864510</v>
       </c>
       <c r="B24" t="n">
-        <v>91771</v>
+        <v>78255</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>228579</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446069</v>
+        <v>445990</v>
       </c>
       <c r="R24" t="n">
-        <v>7030939</v>
+        <v>7031220</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3233,7 +3232,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3243,12 +3242,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3257,6 +3256,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130864511</v>
+        <v>130864513</v>
       </c>
       <c r="B13" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1923,21 +1923,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445985</v>
+        <v>445962</v>
       </c>
       <c r="R13" t="n">
-        <v>7031157</v>
+        <v>7031114</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2027,7 +2027,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130864514</v>
+        <v>130864511</v>
       </c>
       <c r="B14" t="n">
         <v>83223</v>
@@ -2064,13 +2064,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445944</v>
+        <v>445985</v>
       </c>
       <c r="R14" t="n">
-        <v>7031101</v>
+        <v>7031157</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130864513</v>
+        <v>130864514</v>
       </c>
       <c r="B15" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445962</v>
+        <v>445944</v>
       </c>
       <c r="R15" t="n">
-        <v>7031114</v>
+        <v>7031101</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130864513</v>
+        <v>130864511</v>
       </c>
       <c r="B13" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1923,21 +1923,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445962</v>
+        <v>445985</v>
       </c>
       <c r="R13" t="n">
-        <v>7031114</v>
+        <v>7031157</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2027,10 +2027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130864511</v>
+        <v>130864513</v>
       </c>
       <c r="B14" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,13 +2064,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445985</v>
+        <v>445962</v>
       </c>
       <c r="R14" t="n">
-        <v>7031157</v>
+        <v>7031114</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2705,48 +2705,50 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130864526</v>
+        <v>130864509</v>
       </c>
       <c r="B20" t="n">
-        <v>83223</v>
+        <v>80314</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>229748</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>445972</v>
+        <v>445988</v>
       </c>
       <c r="R20" t="n">
-        <v>7031064</v>
+        <v>7031220</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2775,7 +2777,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2785,12 +2787,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På kalkblock i gammal granskog</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2818,50 +2820,48 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130864509</v>
+        <v>130864526</v>
       </c>
       <c r="B21" t="n">
-        <v>80314</v>
+        <v>83223</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>229748</v>
+        <v>6440</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>445988</v>
+        <v>445972</v>
       </c>
       <c r="R21" t="n">
-        <v>7031220</v>
+        <v>7031064</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På kalkblock i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2933,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864515</v>
+        <v>130864510</v>
       </c>
       <c r="B22" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,13 +2970,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445932</v>
+        <v>445990</v>
       </c>
       <c r="R22" t="n">
-        <v>7031103</v>
+        <v>7031220</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3048,48 +3048,50 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864521</v>
+        <v>130864515</v>
       </c>
       <c r="B23" t="n">
-        <v>91771</v>
+        <v>83223</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446069</v>
+        <v>445932</v>
       </c>
       <c r="R23" t="n">
-        <v>7030939</v>
+        <v>7031103</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3118,7 +3120,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3128,12 +3130,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3142,6 +3144,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3160,50 +3163,48 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130864510</v>
+        <v>130864521</v>
       </c>
       <c r="B24" t="n">
-        <v>78255</v>
+        <v>91771</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228579</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445990</v>
+        <v>446069</v>
       </c>
       <c r="R24" t="n">
-        <v>7031220</v>
+        <v>7030939</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3232,7 +3233,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3242,12 +3243,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3256,7 +3257,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130864518</v>
+        <v>130864530</v>
       </c>
       <c r="B27" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,21 +3510,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446031</v>
+        <v>445967</v>
       </c>
       <c r="R27" t="n">
-        <v>7030902</v>
+        <v>7031099</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran (ca 150 år)i gammal granskog</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130864530</v>
+        <v>130864518</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3622,21 +3622,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>445967</v>
+        <v>446031</v>
       </c>
       <c r="R28" t="n">
-        <v>7031099</v>
+        <v>7030902</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 150 år)i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -2027,10 +2027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130864513</v>
+        <v>130864514</v>
       </c>
       <c r="B14" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2038,21 +2038,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445962</v>
+        <v>445944</v>
       </c>
       <c r="R14" t="n">
-        <v>7031114</v>
+        <v>7031101</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130864514</v>
+        <v>130864513</v>
       </c>
       <c r="B15" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445944</v>
+        <v>445962</v>
       </c>
       <c r="R15" t="n">
-        <v>7031101</v>
+        <v>7031114</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130864522</v>
+        <v>130864519</v>
       </c>
       <c r="B17" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446025</v>
+        <v>446074</v>
       </c>
       <c r="R17" t="n">
-        <v>7031011</v>
+        <v>7030848</v>
       </c>
       <c r="S17" t="n">
         <v>6</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130864519</v>
+        <v>130864522</v>
       </c>
       <c r="B18" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,21 +2492,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446074</v>
+        <v>446025</v>
       </c>
       <c r="R18" t="n">
-        <v>7030848</v>
+        <v>7031011</v>
       </c>
       <c r="S18" t="n">
         <v>6</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2705,50 +2705,48 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130864509</v>
+        <v>130864526</v>
       </c>
       <c r="B20" t="n">
-        <v>80314</v>
+        <v>83223</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>229748</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gytterlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Protopannaria pezizoides</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>445988</v>
+        <v>445972</v>
       </c>
       <c r="R20" t="n">
-        <v>7031220</v>
+        <v>7031064</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2777,7 +2775,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2787,12 +2785,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:32</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På kalkblock i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2820,48 +2818,50 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130864526</v>
+        <v>130864509</v>
       </c>
       <c r="B21" t="n">
-        <v>83223</v>
+        <v>80314</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6440</v>
+        <v>229748</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gytterlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Protopannaria pezizoides</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Weber) P.M.Jørg. &amp; S.Ekman</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>445972</v>
+        <v>445988</v>
       </c>
       <c r="R21" t="n">
-        <v>7031064</v>
+        <v>7031220</v>
       </c>
       <c r="S21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2900,12 +2900,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>10:32</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På kalkblock i gammal granskog</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2933,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864510</v>
+        <v>130864515</v>
       </c>
       <c r="B22" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,13 +2970,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445990</v>
+        <v>445932</v>
       </c>
       <c r="R22" t="n">
-        <v>7031220</v>
+        <v>7031103</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3048,50 +3048,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864515</v>
+        <v>130864521</v>
       </c>
       <c r="B23" t="n">
-        <v>83223</v>
+        <v>91771</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445932</v>
+        <v>446069</v>
       </c>
       <c r="R23" t="n">
-        <v>7031103</v>
+        <v>7030939</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3120,7 +3118,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3130,12 +3128,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3144,7 +3142,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3163,48 +3160,50 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130864521</v>
+        <v>130864510</v>
       </c>
       <c r="B24" t="n">
-        <v>91771</v>
+        <v>78255</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>228579</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446069</v>
+        <v>445990</v>
       </c>
       <c r="R24" t="n">
-        <v>7030939</v>
+        <v>7031220</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3233,7 +3232,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3243,12 +3242,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3257,6 +3256,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130864530</v>
+        <v>130864518</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>83223</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,21 +3510,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>445967</v>
+        <v>446031</v>
       </c>
       <c r="R27" t="n">
-        <v>7031099</v>
+        <v>7030902</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 150 år)i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130864518</v>
+        <v>130864530</v>
       </c>
       <c r="B28" t="n">
-        <v>83223</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3622,21 +3622,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>446031</v>
+        <v>445967</v>
       </c>
       <c r="R28" t="n">
-        <v>7030902</v>
+        <v>7031099</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran (ca 150 år)i gammal granskog</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130864687</v>
+        <v>130864689</v>
       </c>
       <c r="B4" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445985</v>
+        <v>446026</v>
       </c>
       <c r="R4" t="n">
-        <v>7030968</v>
+        <v>7031030</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130864689</v>
+        <v>130864687</v>
       </c>
       <c r="B5" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,21 +1027,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>446026</v>
+        <v>445985</v>
       </c>
       <c r="R5" t="n">
-        <v>7031030</v>
+        <v>7030968</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130864689</v>
+        <v>130864687</v>
       </c>
       <c r="B4" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>446026</v>
+        <v>445985</v>
       </c>
       <c r="R4" t="n">
-        <v>7031030</v>
+        <v>7030968</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:51</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130864687</v>
+        <v>130864689</v>
       </c>
       <c r="B5" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,21 +1027,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445985</v>
+        <v>446026</v>
       </c>
       <c r="R5" t="n">
-        <v>7030968</v>
+        <v>7031030</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>13:51</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1912,7 +1912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130864511</v>
+        <v>130864514</v>
       </c>
       <c r="B13" t="n">
         <v>83223</v>
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445985</v>
+        <v>445944</v>
       </c>
       <c r="R13" t="n">
-        <v>7031157</v>
+        <v>7031101</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2027,7 +2027,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130864514</v>
+        <v>130864511</v>
       </c>
       <c r="B14" t="n">
         <v>83223</v>
@@ -2064,13 +2064,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>445944</v>
+        <v>445985</v>
       </c>
       <c r="R14" t="n">
-        <v>7031101</v>
+        <v>7031157</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2933,10 +2933,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864515</v>
+        <v>130864510</v>
       </c>
       <c r="B22" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2944,21 +2944,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,13 +2970,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445932</v>
+        <v>445990</v>
       </c>
       <c r="R22" t="n">
-        <v>7031103</v>
+        <v>7031220</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3048,48 +3048,50 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864521</v>
+        <v>130864515</v>
       </c>
       <c r="B23" t="n">
-        <v>91771</v>
+        <v>83223</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>446069</v>
+        <v>445932</v>
       </c>
       <c r="R23" t="n">
-        <v>7030939</v>
+        <v>7031103</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3118,7 +3120,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3128,12 +3130,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3142,6 +3144,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3160,50 +3163,48 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130864510</v>
+        <v>130864521</v>
       </c>
       <c r="B24" t="n">
-        <v>78255</v>
+        <v>91771</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228579</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>445990</v>
+        <v>446069</v>
       </c>
       <c r="R24" t="n">
-        <v>7031220</v>
+        <v>7030939</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3232,7 +3233,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3242,12 +3243,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3256,7 +3257,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130864514</v>
+        <v>130864513</v>
       </c>
       <c r="B13" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1923,21 +1923,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445944</v>
+        <v>445962</v>
       </c>
       <c r="R13" t="n">
-        <v>7031101</v>
+        <v>7031114</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130864513</v>
+        <v>130864514</v>
       </c>
       <c r="B15" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445962</v>
+        <v>445944</v>
       </c>
       <c r="R15" t="n">
-        <v>7031114</v>
+        <v>7031101</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130864519</v>
+        <v>130864522</v>
       </c>
       <c r="B17" t="n">
-        <v>83223</v>
+        <v>78255</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446074</v>
+        <v>446025</v>
       </c>
       <c r="R17" t="n">
-        <v>7030848</v>
+        <v>7031011</v>
       </c>
       <c r="S17" t="n">
         <v>6</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130864522</v>
+        <v>130864519</v>
       </c>
       <c r="B18" t="n">
-        <v>78255</v>
+        <v>83223</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,21 +2492,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446025</v>
+        <v>446074</v>
       </c>
       <c r="R18" t="n">
-        <v>7031011</v>
+        <v>7030848</v>
       </c>
       <c r="S18" t="n">
         <v>6</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2933,50 +2933,48 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864510</v>
+        <v>130864521</v>
       </c>
       <c r="B22" t="n">
-        <v>78255</v>
+        <v>91771</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228579</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>445990</v>
+        <v>446069</v>
       </c>
       <c r="R22" t="n">
-        <v>7031220</v>
+        <v>7030939</v>
       </c>
       <c r="S22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3005,7 +3003,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,12 +3013,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:33</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3029,7 +3027,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3163,48 +3160,50 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130864521</v>
+        <v>130864510</v>
       </c>
       <c r="B24" t="n">
-        <v>91771</v>
+        <v>78255</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>228579</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>446069</v>
+        <v>445990</v>
       </c>
       <c r="R24" t="n">
-        <v>7030939</v>
+        <v>7031220</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3233,7 +3232,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3243,12 +3242,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3257,6 +3256,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130874764</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130864688</v>
       </c>
       <c r="B3" t="n">
-        <v>80308</v>
+        <v>80309</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>130864687</v>
       </c>
       <c r="B4" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>130864689</v>
       </c>
       <c r="B5" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>130864691</v>
       </c>
       <c r="B6" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>130874548</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         <v>130864686</v>
       </c>
       <c r="B9" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>130864692</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
         <v>130864516</v>
       </c>
       <c r="B12" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>130864513</v>
       </c>
       <c r="B13" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>130864511</v>
       </c>
       <c r="B14" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>130864514</v>
       </c>
       <c r="B15" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>130864529</v>
       </c>
       <c r="B16" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130864522</v>
+        <v>130864519</v>
       </c>
       <c r="B17" t="n">
-        <v>78255</v>
+        <v>83224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>446025</v>
+        <v>446074</v>
       </c>
       <c r="R17" t="n">
-        <v>7031011</v>
+        <v>7030848</v>
       </c>
       <c r="S17" t="n">
         <v>6</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:42</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2481,10 +2481,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130864519</v>
+        <v>130864522</v>
       </c>
       <c r="B18" t="n">
-        <v>83223</v>
+        <v>78256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2492,21 +2492,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>446074</v>
+        <v>446025</v>
       </c>
       <c r="R18" t="n">
-        <v>7030848</v>
+        <v>7031011</v>
       </c>
       <c r="S18" t="n">
         <v>6</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>13:42</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>130864525</v>
       </c>
       <c r="B19" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         <v>130864526</v>
       </c>
       <c r="B20" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>130864509</v>
       </c>
       <c r="B21" t="n">
-        <v>80314</v>
+        <v>80315</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>130864521</v>
       </c>
       <c r="B22" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>130864515</v>
       </c>
       <c r="B23" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>130864510</v>
       </c>
       <c r="B24" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>130864528</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>130864524</v>
       </c>
       <c r="B26" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>130864518</v>
       </c>
       <c r="B27" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>130864530</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>130864508</v>
       </c>
       <c r="B29" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         <v>130864512</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>

--- a/artfynd/A 63661-2025 artfynd.xlsx
+++ b/artfynd/A 63661-2025 artfynd.xlsx
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130864513</v>
+        <v>130864514</v>
       </c>
       <c r="B13" t="n">
-        <v>78256</v>
+        <v>83224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1923,21 +1923,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>445962</v>
+        <v>445944</v>
       </c>
       <c r="R13" t="n">
-        <v>7031114</v>
+        <v>7031101</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:03</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2142,10 +2142,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130864514</v>
+        <v>130864513</v>
       </c>
       <c r="B15" t="n">
-        <v>83224</v>
+        <v>78256</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2153,21 +2153,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>445944</v>
+        <v>445962</v>
       </c>
       <c r="R15" t="n">
-        <v>7031101</v>
+        <v>7031114</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:03</t>
+          <t>10:51</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2933,48 +2933,50 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130864521</v>
+        <v>130864515</v>
       </c>
       <c r="B22" t="n">
-        <v>91772</v>
+        <v>83224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>6440</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>446069</v>
+        <v>445932</v>
       </c>
       <c r="R22" t="n">
-        <v>7030939</v>
+        <v>7031103</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3003,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3013,12 +3015,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På död klen gran i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3027,6 +3029,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3045,50 +3048,48 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130864515</v>
+        <v>130864521</v>
       </c>
       <c r="B23" t="n">
-        <v>83224</v>
+        <v>91772</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6440</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Landverk, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>445932</v>
+        <v>446069</v>
       </c>
       <c r="R23" t="n">
-        <v>7031103</v>
+        <v>7030939</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3127,12 +3128,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran</t>
+          <t>På död klen gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3141,7 +3142,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130864518</v>
+        <v>130864530</v>
       </c>
       <c r="B27" t="n">
-        <v>83224</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3510,21 +3510,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>446031</v>
+        <v>445967</v>
       </c>
       <c r="R27" t="n">
-        <v>7030902</v>
+        <v>7031099</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>11:56</t>
+          <t>14:21</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>På bark på stam av levande gammal gran i gammal granskog</t>
+          <t>På gammal gran (ca 150 år)i gammal granskog</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3611,10 +3611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130864530</v>
+        <v>130864518</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>83224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3622,21 +3622,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>445967</v>
+        <v>446031</v>
       </c>
       <c r="R28" t="n">
-        <v>7031099</v>
+        <v>7030902</v>
       </c>
       <c r="S28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>14:21</t>
+          <t>11:56</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>På gammal gran (ca 150 år)i gammal granskog</t>
+          <t>På bark på stam av levande gammal gran i gammal granskog</t>
         </is>
       </c>
       <c r="AD28" t="b">
